--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\BigHitGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D46E669-87C0-48A3-A490-983A0FA7665E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73BA245-7FB4-40B6-8B67-7E8E4B1972B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28665" yWindow="1380" windowWidth="27765" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5910" yWindow="4635" windowWidth="28800" windowHeight="11160" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -78,19 +78,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전투 탐구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전술 탐구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영혼 탐구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 탐구</t>
+    <t>공격 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공력 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 훈련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,11 +458,12 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
@@ -500,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -523,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -546,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -569,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>4</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73BA245-7FB4-40B6-8B67-7E8E4B1972B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14919B04-B152-4C0D-8C6A-85308BD97644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="4635" windowWidth="28800" windowHeight="11160" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3525" yWindow="2595" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -533,7 +533,7 @@
         <v>0.02</v>
       </c>
       <c r="F3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -556,7 +556,7 @@
         <v>0.01</v>
       </c>
       <c r="F4">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -579,7 +579,7 @@
         <v>0.01</v>
       </c>
       <c r="F5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14919B04-B152-4C0D-8C6A-85308BD97644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C687C28B-B8DD-407D-8AE5-B932AC73513E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="2595" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,19 +458,19 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="11.58203125" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -516,7 +516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -556,13 +556,13 @@
         <v>0.01</v>
       </c>
       <c r="F4">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C687C28B-B8DD-407D-8AE5-B932AC73513E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE13C48-14E0-4EAC-906B-63D281224B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,19 +458,19 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="11.58203125" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -510,13 +510,13 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -533,13 +533,13 @@
         <v>0.02</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -556,13 +556,13 @@
         <v>0.01</v>
       </c>
       <c r="F4">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -579,7 +579,7 @@
         <v>0.01</v>
       </c>
       <c r="F5">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE13C48-14E0-4EAC-906B-63D281224B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770C7C3D-5258-4E8F-92E1-F85FACCE8CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2805" yWindow="4230" windowWidth="35595" windowHeight="14040" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -533,7 +533,7 @@
         <v>0.02</v>
       </c>
       <c r="F3">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -579,7 +579,7 @@
         <v>0.01</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770C7C3D-5258-4E8F-92E1-F85FACCE8CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FD0707-42B2-40EC-88E4-B1C4E6BAE1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="4230" windowWidth="35595" windowHeight="14040" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -533,7 +533,7 @@
         <v>0.02</v>
       </c>
       <c r="F3">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -556,7 +556,7 @@
         <v>0.01</v>
       </c>
       <c r="F4">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -579,7 +579,7 @@
         <v>0.01</v>
       </c>
       <c r="F5">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FD0707-42B2-40EC-88E4-B1C4E6BAE1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E9B6AB-902F-498B-8445-9953AD7A0A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6960" yWindow="10680" windowWidth="32325" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -533,7 +533,7 @@
         <v>0.02</v>
       </c>
       <c r="F3">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -556,7 +556,7 @@
         <v>0.01</v>
       </c>
       <c r="F4">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -579,7 +579,7 @@
         <v>0.01</v>
       </c>
       <c r="F5">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E9B6AB-902F-498B-8445-9953AD7A0A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4102D574-EA50-45F8-9551-57D7FDCF6D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="10680" windowWidth="32325" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7920" yWindow="2415" windowWidth="27555" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -556,7 +556,7 @@
         <v>0.01</v>
       </c>
       <c r="F4">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4102D574-EA50-45F8-9551-57D7FDCF6D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8A6001-1B7E-4B6B-9A34-D756544290B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="2415" windowWidth="27555" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I7" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -533,7 +533,7 @@
         <v>0.02</v>
       </c>
       <c r="F3">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -579,7 +579,7 @@
         <v>0.01</v>
       </c>
       <c r="F5">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8A6001-1B7E-4B6B-9A34-D756544290B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7482F682-0994-4A8B-817F-77B3CAEE8DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,19 +458,19 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I6:I7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -510,13 +510,13 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -533,13 +533,13 @@
         <v>0.02</v>
       </c>
       <c r="F3">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -562,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -579,7 +579,7 @@
         <v>0.01</v>
       </c>
       <c r="F5">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7482F682-0994-4A8B-817F-77B3CAEE8DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E759BD88-EEA1-4EFA-ABBC-5DB2B4506E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -556,7 +556,7 @@
         <v>0.01</v>
       </c>
       <c r="F4">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E759BD88-EEA1-4EFA-ABBC-5DB2B4506E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6D7853-31C4-436E-954A-AD94B4BFA282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,19 +458,19 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.19921875" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -516,7 +516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -556,13 +556,13 @@
         <v>0.01</v>
       </c>
       <c r="F4">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -579,7 +579,7 @@
         <v>0.01</v>
       </c>
       <c r="F5">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6D7853-31C4-436E-954A-AD94B4BFA282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2358A211-EDA6-4D14-86EB-11ACA7787BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -556,7 +556,7 @@
         <v>0.01</v>
       </c>
       <c r="F4">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2358A211-EDA6-4D14-86EB-11ACA7787BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9B1D34-A55E-413B-9361-474409DBB321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6255" yWindow="11100" windowWidth="29865" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -507,10 +507,10 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F3">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -576,10 +576,10 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F5">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9B1D34-A55E-413B-9361-474409DBB321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7E4393-AA41-4C4F-A3DC-C3AC14343B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="11100" windowWidth="29865" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -507,7 +507,7 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>20000</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F3">
         <v>30000</v>
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F5">
         <v>20000</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7E4393-AA41-4C4F-A3DC-C3AC14343B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9900CC16-09B0-433E-B816-96344D562986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="9840" yWindow="5055" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -533,7 +533,7 @@
         <v>0.05</v>
       </c>
       <c r="F3">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -579,7 +579,7 @@
         <v>0.04</v>
       </c>
       <c r="F5">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9900CC16-09B0-433E-B816-96344D562986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6278D7A-CEC5-48FE-81CC-E5F21CC0A9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="5055" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -533,7 +533,7 @@
         <v>0.05</v>
       </c>
       <c r="F3">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -579,7 +579,7 @@
         <v>0.04</v>
       </c>
       <c r="F5">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6278D7A-CEC5-48FE-81CC-E5F21CC0A9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E7A738-27A7-49BA-A7B7-9BAC07F6C72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -533,7 +533,7 @@
         <v>0.05</v>
       </c>
       <c r="F3">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -556,7 +556,7 @@
         <v>0.01</v>
       </c>
       <c r="F4">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -579,7 +579,7 @@
         <v>0.04</v>
       </c>
       <c r="F5">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E7A738-27A7-49BA-A7B7-9BAC07F6C72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1153A5FA-F23B-4249-A2AF-3A1DF280D809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -507,10 +507,10 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1153A5FA-F23B-4249-A2AF-3A1DF280D809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5710A559-2D9D-41EB-BA41-4EBB98067BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -533,7 +533,7 @@
         <v>0.05</v>
       </c>
       <c r="F3">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -579,7 +579,7 @@
         <v>0.04</v>
       </c>
       <c r="F5">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5710A559-2D9D-41EB-BA41-4EBB98067BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936BD654-6B18-4312-B141-28BFA8213502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="11490" yWindow="3975" windowWidth="26715" windowHeight="14640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -533,7 +533,7 @@
         <v>0.05</v>
       </c>
       <c r="F3">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -556,7 +556,7 @@
         <v>0.01</v>
       </c>
       <c r="F4">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -579,7 +579,7 @@
         <v>0.04</v>
       </c>
       <c r="F5">
-        <v>120000</v>
+        <v>300000</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936BD654-6B18-4312-B141-28BFA8213502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45914364-6730-43CD-9523-63B3517CF361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="3975" windowWidth="26715" windowHeight="14640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3855" yWindow="5190" windowWidth="26595" windowHeight="11610" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -533,7 +533,7 @@
         <v>0.05</v>
       </c>
       <c r="F3">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45914364-6730-43CD-9523-63B3517CF361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF74C2F-0E5B-45FC-80D5-AB4D95BC44A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="5190" windowWidth="26595" windowHeight="11610" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,36 @@
   </si>
   <si>
     <t>기술 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSinPassive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive4</t>
+  </si>
+  <si>
+    <t>passive5</t>
+  </si>
+  <si>
+    <t>등껍질 부수기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호 발톱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -470,7 +500,7 @@
     <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,8 +522,14 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -515,8 +551,11 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -538,8 +577,11 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -561,8 +603,11 @@
       <c r="G4" t="s">
         <v>13</v>
       </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -583,6 +628,67 @@
       </c>
       <c r="G5" t="s">
         <v>14</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>50000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="F7">
+        <v>50000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF74C2F-0E5B-45FC-80D5-AB4D95BC44A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCF1C16-D5DC-4FCD-8C5D-544F2F796D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
         <v>0.05</v>
       </c>
       <c r="F3">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCF1C16-D5DC-4FCD-8C5D-544F2F796D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48091C18-28C6-4FD3-A40D-282BDE2F2B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24930" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -572,7 +572,7 @@
         <v>0.05</v>
       </c>
       <c r="F3">
-        <v>500000</v>
+        <v>800000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48091C18-28C6-4FD3-A40D-282BDE2F2B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977023C7-3813-4E3D-AD39-B2CCBB220DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="24930" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,14 @@
   </si>
   <si>
     <t>s0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백귀의 힘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -498,6 +506,7 @@
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -689,6 +698,32 @@
       </c>
       <c r="I7" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>0.15</v>
+      </c>
+      <c r="F8">
+        <v>100000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977023C7-3813-4E3D-AD39-B2CCBB220DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5654672A-6767-48FF-9EF5-B6F848BD63BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -555,7 +555,7 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -581,7 +581,7 @@
         <v>0.05</v>
       </c>
       <c r="F3">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5654672A-6767-48FF-9EF5-B6F848BD63BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABF5215-7E5F-411C-ADBD-62A4B47AF7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3510" yWindow="1200" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
         <v>0.05</v>
       </c>
       <c r="F3">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABF5215-7E5F-411C-ADBD-62A4B47AF7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8A0BC3-63F9-4C11-A719-683681500E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1200" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="300" yWindow="1890" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -581,7 +581,7 @@
         <v>0.05</v>
       </c>
       <c r="F3">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
